--- a/cases/NorthSea/Networks/NetworkDataElectricity_existing.xlsx
+++ b/cases/NorthSea/Networks/NetworkDataElectricity_existing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6574114\Documents\Research\EHUB-Py_Productive\cases\NorthSea\Networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DDE8C1-BD01-476D-9D7A-1F516A8B29A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E9A34E-0813-469F-8B52-FC767171651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EA908912-227C-430C-843A-6E0E9DEC2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="NetworkType" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -429,7 +429,7 @@
             <v>NL_on_Holland_S</v>
           </cell>
           <cell r="B5" t="str">
-            <v>onNL_SW</v>
+            <v>onNL_W</v>
           </cell>
         </row>
         <row r="6">
@@ -625,13 +625,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>onNL_NE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -936,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A4FB2D-12DB-48B7-BD9E-1F9FED4CCCBB}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1885,11 +1879,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19037A9-823E-43DC-977F-676C2E51B637}">
   <dimension ref="A1:AC49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,7 +2000,7 @@
       </c>
       <c r="E2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>160.215717690189</v>
       </c>
       <c r="F2" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A2&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2123,7 +2117,7 @@
       </c>
       <c r="E3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>122.233015251859</v>
       </c>
       <c r="F3" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A3&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2240,7 +2234,7 @@
       </c>
       <c r="E4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>73.098190833047397</v>
       </c>
       <c r="F4" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A4&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2345,15 +2339,15 @@
       </c>
       <c r="B5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;B$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>160.215717690189</v>
       </c>
       <c r="C5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;C$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>122.23301525186</v>
       </c>
       <c r="D5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;D$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>73.098190833047212</v>
       </c>
       <c r="E5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2361,99 +2355,99 @@
       </c>
       <c r="F5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>68.354024510095513</v>
       </c>
       <c r="G5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>83.093200778342506</v>
       </c>
       <c r="H5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>46.910149427661402</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;I$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.65552976572999</v>
       </c>
       <c r="J5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;J$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>150.147779690883</v>
       </c>
       <c r="K5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;K$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>407.114647437315</v>
       </c>
       <c r="L5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;L$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>551.71631086470302</v>
       </c>
       <c r="M5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;M$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>959.02504167433392</v>
       </c>
       <c r="N5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;N$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>556.130636818217</v>
       </c>
       <c r="O5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;O$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>123.609996781029</v>
       </c>
       <c r="P5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;P$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>127.816754983997</v>
       </c>
       <c r="Q5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Q$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>117.490074404659</v>
       </c>
       <c r="R5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;R$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>124.576180972134</v>
       </c>
       <c r="S5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;S$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>71.264063469820798</v>
       </c>
       <c r="T5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;T$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>74.10717060114159</v>
       </c>
       <c r="U5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;U$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>59.062457639507599</v>
       </c>
       <c r="V5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;V$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>241.071005421938</v>
       </c>
       <c r="W5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;W$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>245.15186942224801</v>
       </c>
       <c r="X5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;X$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>53.326987538476402</v>
       </c>
       <c r="Y5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Y$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>60.596188522896895</v>
       </c>
       <c r="Z5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;Z$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>85.584997692026306</v>
       </c>
       <c r="AA5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AA$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.47154062254799</v>
       </c>
       <c r="AB5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AB$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>98.835658944315696</v>
       </c>
       <c r="AC5" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A5&amp;"-"&amp;AC$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>133.60579280435599</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2474,7 +2468,7 @@
       </c>
       <c r="E6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>68.354024510095897</v>
       </c>
       <c r="F6" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A6&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2591,7 +2585,7 @@
       </c>
       <c r="E7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>83.093200778342691</v>
       </c>
       <c r="F7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2599,7 +2593,7 @@
       </c>
       <c r="G7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;G$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>83.093200778342691</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A7&amp;"-"&amp;H$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2708,7 +2702,7 @@
       </c>
       <c r="E8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>46.910149427661196</v>
       </c>
       <c r="F8" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A8&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2825,7 +2819,7 @@
       </c>
       <c r="E9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.65552976572999</v>
       </c>
       <c r="F9" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A9&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -2942,7 +2936,7 @@
       </c>
       <c r="E10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>150.14777969088198</v>
       </c>
       <c r="F10" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A10&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3059,7 +3053,7 @@
       </c>
       <c r="E11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>407.114647437315</v>
       </c>
       <c r="F11" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A11&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3176,7 +3170,7 @@
       </c>
       <c r="E12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>551.71631086470302</v>
       </c>
       <c r="F12" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A12&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3293,7 +3287,7 @@
       </c>
       <c r="E13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>959.02504167433392</v>
       </c>
       <c r="F13" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A13&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3410,7 +3404,7 @@
       </c>
       <c r="E14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>556.130636818217</v>
       </c>
       <c r="F14" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A14&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3527,7 +3521,7 @@
       </c>
       <c r="E15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>123.609996781029</v>
       </c>
       <c r="F15" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A15&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3644,7 +3638,7 @@
       </c>
       <c r="E16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>127.816754983997</v>
       </c>
       <c r="F16" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A16&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3761,7 +3755,7 @@
       </c>
       <c r="E17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>117.490074404659</v>
       </c>
       <c r="F17" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A17&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3878,7 +3872,7 @@
       </c>
       <c r="E18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>124.576180972134</v>
       </c>
       <c r="F18" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A18&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -3995,7 +3989,7 @@
       </c>
       <c r="E19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>71.264063469820599</v>
       </c>
       <c r="F19" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A19&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4112,7 +4106,7 @@
       </c>
       <c r="E20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>74.107170601141206</v>
       </c>
       <c r="F20" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A20&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4229,7 +4223,7 @@
       </c>
       <c r="E21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>59.062457639507798</v>
       </c>
       <c r="F21" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A21&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4346,7 +4340,7 @@
       </c>
       <c r="E22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>241.071005421938</v>
       </c>
       <c r="F22" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A22&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4463,7 +4457,7 @@
       </c>
       <c r="E23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>245.15186942224801</v>
       </c>
       <c r="F23" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A23&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4580,7 +4574,7 @@
       </c>
       <c r="E24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>53.326987538476494</v>
       </c>
       <c r="F24" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A24&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4697,7 +4691,7 @@
       </c>
       <c r="E25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>60.596188522896803</v>
       </c>
       <c r="F25" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A25&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4814,7 +4808,7 @@
       </c>
       <c r="E26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>85.584997692026604</v>
       </c>
       <c r="F26" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A26&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -4931,7 +4925,7 @@
       </c>
       <c r="E27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>101.47154062254799</v>
       </c>
       <c r="F27" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A27&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5048,7 +5042,7 @@
       </c>
       <c r="E28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>98.835658944315398</v>
       </c>
       <c r="F28" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A28&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -5165,7 +5159,7 @@
       </c>
       <c r="E29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;E$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
-        <v>0</v>
+        <v>133.60579280435599</v>
       </c>
       <c r="F29" s="2">
         <f>IFERROR(_xlfn.XLOOKUP($A29&amp;"-"&amp;F$1,FromQgis!$D:$D,FromQgis!$C:$C)/1000,0)</f>
@@ -6012,10 +6006,13 @@
   <dimension ref="A1:N1191"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6560,14 +6557,14 @@
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(L19,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C19">
         <v>117490.074404659</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>ofNL_BO_A-onNL_SW</v>
+        <v>ofNL_BO_A-onNL_W</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -7559,14 +7556,14 @@
       </c>
       <c r="B53" t="str">
         <f>_xlfn.XLOOKUP(L53,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C53">
         <v>53326.987538476496</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>ofNL_KZ_B-onNL_SW</v>
+        <v>ofNL_KZ_B-onNL_W</v>
       </c>
       <c r="K53" t="s">
         <v>24</v>
@@ -8558,14 +8555,14 @@
       </c>
       <c r="B87" t="str">
         <f>_xlfn.XLOOKUP(L87,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C87">
         <v>123609.996781029</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
-        <v>ofNL_IJ_B-onNL_SW</v>
+        <v>ofNL_IJ_B-onNL_W</v>
       </c>
       <c r="K87" t="s">
         <v>15</v>
@@ -9557,14 +9554,14 @@
       </c>
       <c r="B121" t="str">
         <f>_xlfn.XLOOKUP(L121,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C121">
         <v>60596.188522896802</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
-        <v>ofNL_KZ_A-onNL_SW</v>
+        <v>ofNL_KZ_A-onNL_W</v>
       </c>
       <c r="K121" t="s">
         <v>25</v>
@@ -10556,14 +10553,14 @@
       </c>
       <c r="B155" t="str">
         <f>_xlfn.XLOOKUP(L155,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C155">
         <v>127816.754983997</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="4"/>
-        <v>ofNL_IJ_A-onNL_SW</v>
+        <v>ofNL_IJ_A-onNL_W</v>
       </c>
       <c r="K155" t="s">
         <v>16</v>
@@ -11555,14 +11552,14 @@
       </c>
       <c r="B189" t="str">
         <f>_xlfn.XLOOKUP(L189,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C189">
         <v>124576.180972134</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="4"/>
-        <v>ofNL_BO_B-onNL_SW</v>
+        <v>ofNL_BO_B-onNL_W</v>
       </c>
       <c r="K189" t="s">
         <v>18</v>
@@ -12554,14 +12551,14 @@
       </c>
       <c r="B223" t="str">
         <f>_xlfn.XLOOKUP(L223,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C223">
         <v>133605.792804356</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="6"/>
-        <v>ofNL_IJ_G-onNL_SW</v>
+        <v>ofNL_IJ_G-onNL_W</v>
       </c>
       <c r="K223" t="s">
         <v>30</v>
@@ -13553,14 +13550,14 @@
       </c>
       <c r="B257" t="str">
         <f>_xlfn.XLOOKUP(L257,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C257">
         <v>83093.200778342696</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="6"/>
-        <v>onNL_SW-onNL_SW</v>
+        <v>onNL_SW-onNL_W</v>
       </c>
       <c r="K257" t="s">
         <v>2</v>
@@ -14552,14 +14549,14 @@
       </c>
       <c r="B291" t="str">
         <f>_xlfn.XLOOKUP(L291,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C291">
         <v>68354.0245100959</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="8"/>
-        <v>onNL_CE-onNL_SW</v>
+        <v>onNL_CE-onNL_W</v>
       </c>
       <c r="K291" t="s">
         <v>3</v>
@@ -15551,14 +15548,14 @@
       </c>
       <c r="B325" t="str">
         <f>_xlfn.XLOOKUP(L325,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C325">
         <v>150147.77969088199</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="10"/>
-        <v>onBE-onNL_SW</v>
+        <v>onBE-onNL_W</v>
       </c>
       <c r="K325" t="s">
         <v>4</v>
@@ -16550,14 +16547,14 @@
       </c>
       <c r="B359" t="str">
         <f>_xlfn.XLOOKUP(L359,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C359">
         <v>407114.64743731503</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="10"/>
-        <v>onDE-onNL_SW</v>
+        <v>onDE-onNL_W</v>
       </c>
       <c r="K359" t="s">
         <v>5</v>
@@ -17549,14 +17546,14 @@
       </c>
       <c r="B393" t="str">
         <f>_xlfn.XLOOKUP(L393,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C393">
         <v>551716.31086470303</v>
       </c>
       <c r="D393" t="str">
         <f t="shared" si="12"/>
-        <v>onUK-onNL_SW</v>
+        <v>onUK-onNL_W</v>
       </c>
       <c r="K393" t="s">
         <v>6</v>
@@ -18548,14 +18545,14 @@
       </c>
       <c r="B427" t="str">
         <f>_xlfn.XLOOKUP(L427,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C427">
         <v>556130.636818217</v>
       </c>
       <c r="D427" t="str">
         <f t="shared" si="12"/>
-        <v>onDKW-onNL_SW</v>
+        <v>onDKW-onNL_W</v>
       </c>
       <c r="K427" t="s">
         <v>7</v>
@@ -19547,14 +19544,14 @@
       </c>
       <c r="B461" t="str">
         <f>_xlfn.XLOOKUP(L461,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C461">
         <v>101655.52976573</v>
       </c>
       <c r="D461" t="str">
         <f t="shared" si="14"/>
-        <v>onNL_E-onNL_SW</v>
+        <v>onNL_E-onNL_W</v>
       </c>
       <c r="K461" t="s">
         <v>8</v>
@@ -20546,14 +20543,14 @@
       </c>
       <c r="B495" t="str">
         <f>_xlfn.XLOOKUP(L495,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C495">
         <v>959025.04167433397</v>
       </c>
       <c r="D495" t="str">
         <f t="shared" si="14"/>
-        <v>onNOS-onNL_SW</v>
+        <v>onNOS-onNL_W</v>
       </c>
       <c r="K495" t="s">
         <v>9</v>
@@ -21545,14 +21542,14 @@
       </c>
       <c r="B529" t="str">
         <f>_xlfn.XLOOKUP(L529,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C529">
         <v>73098.190833047396</v>
       </c>
       <c r="D529" t="str">
         <f t="shared" si="16"/>
-        <v>onNL_NW-onNL_SW</v>
+        <v>onNL_NW-onNL_W</v>
       </c>
       <c r="K529" t="s">
         <v>10</v>
@@ -22544,14 +22541,14 @@
       </c>
       <c r="B563" t="str">
         <f>_xlfn.XLOOKUP(L563,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C563">
         <v>160215.71769018899</v>
       </c>
       <c r="D563" t="str">
         <f t="shared" si="16"/>
-        <v>onNL_NE-onNL_SW</v>
+        <v>onNL_NE-onNL_W</v>
       </c>
       <c r="K563" t="s">
         <v>11</v>
@@ -23543,14 +23540,14 @@
       </c>
       <c r="B597" t="str">
         <f>_xlfn.XLOOKUP(L597,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C597">
         <v>46910.149427661199</v>
       </c>
       <c r="D597" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_CW-onNL_SW</v>
+        <v>onNL_CW-onNL_W</v>
       </c>
       <c r="K597" t="s">
         <v>12</v>
@@ -24028,7 +24025,7 @@
     <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614" t="str">
         <f>_xlfn.XLOOKUP(K614,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B614" t="str">
         <f>_xlfn.XLOOKUP(L614,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24039,7 +24036,7 @@
       </c>
       <c r="D614" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_BO_A</v>
+        <v>onNL_W-ofNL_BO_A</v>
       </c>
       <c r="K614" t="s">
         <v>13</v>
@@ -24058,7 +24055,7 @@
     <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615" t="str">
         <f>_xlfn.XLOOKUP(K615,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B615" t="str">
         <f>_xlfn.XLOOKUP(L615,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24069,7 +24066,7 @@
       </c>
       <c r="D615" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KZ_B</v>
+        <v>onNL_W-ofNL_KZ_B</v>
       </c>
       <c r="K615" t="s">
         <v>13</v>
@@ -24088,7 +24085,7 @@
     <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616" t="str">
         <f>_xlfn.XLOOKUP(K616,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B616" t="str">
         <f>_xlfn.XLOOKUP(L616,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24099,7 +24096,7 @@
       </c>
       <c r="D616" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_B</v>
+        <v>onNL_W-ofNL_IJ_B</v>
       </c>
       <c r="K616" t="s">
         <v>13</v>
@@ -24118,7 +24115,7 @@
     <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617" t="str">
         <f>_xlfn.XLOOKUP(K617,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B617" t="str">
         <f>_xlfn.XLOOKUP(L617,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24129,7 +24126,7 @@
       </c>
       <c r="D617" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KZ_A</v>
+        <v>onNL_W-ofNL_KZ_A</v>
       </c>
       <c r="K617" t="s">
         <v>13</v>
@@ -24148,7 +24145,7 @@
     <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618" t="str">
         <f>_xlfn.XLOOKUP(K618,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B618" t="str">
         <f>_xlfn.XLOOKUP(L618,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24159,7 +24156,7 @@
       </c>
       <c r="D618" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_A</v>
+        <v>onNL_W-ofNL_IJ_A</v>
       </c>
       <c r="K618" t="s">
         <v>13</v>
@@ -24178,7 +24175,7 @@
     <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619" t="str">
         <f>_xlfn.XLOOKUP(K619,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B619" t="str">
         <f>_xlfn.XLOOKUP(L619,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24189,7 +24186,7 @@
       </c>
       <c r="D619" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_BO_B</v>
+        <v>onNL_W-ofNL_BO_B</v>
       </c>
       <c r="K619" t="s">
         <v>13</v>
@@ -24208,7 +24205,7 @@
     <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620" t="str">
         <f>_xlfn.XLOOKUP(K620,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B620" t="str">
         <f>_xlfn.XLOOKUP(L620,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24219,7 +24216,7 @@
       </c>
       <c r="D620" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_IJ_G</v>
+        <v>onNL_W-ofNL_IJ_G</v>
       </c>
       <c r="K620" t="s">
         <v>13</v>
@@ -24238,7 +24235,7 @@
     <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621" t="str">
         <f>_xlfn.XLOOKUP(K621,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B621" t="str">
         <f>_xlfn.XLOOKUP(L621,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24249,7 +24246,7 @@
       </c>
       <c r="D621" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_SW</v>
+        <v>onNL_W-onNL_SW</v>
       </c>
       <c r="K621" t="s">
         <v>13</v>
@@ -24268,7 +24265,7 @@
     <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622" t="str">
         <f>_xlfn.XLOOKUP(K622,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B622" t="str">
         <f>_xlfn.XLOOKUP(L622,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24279,7 +24276,7 @@
       </c>
       <c r="D622" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_CE</v>
+        <v>onNL_W-onNL_CE</v>
       </c>
       <c r="K622" t="s">
         <v>13</v>
@@ -24298,7 +24295,7 @@
     <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623" t="str">
         <f>_xlfn.XLOOKUP(K623,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B623" t="str">
         <f>_xlfn.XLOOKUP(L623,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24309,7 +24306,7 @@
       </c>
       <c r="D623" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onBE</v>
+        <v>onNL_W-onBE</v>
       </c>
       <c r="K623" t="s">
         <v>13</v>
@@ -24328,7 +24325,7 @@
     <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" t="str">
         <f>_xlfn.XLOOKUP(K624,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B624" t="str">
         <f>_xlfn.XLOOKUP(L624,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24339,7 +24336,7 @@
       </c>
       <c r="D624" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onDE</v>
+        <v>onNL_W-onDE</v>
       </c>
       <c r="K624" t="s">
         <v>13</v>
@@ -24358,7 +24355,7 @@
     <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625" t="str">
         <f>_xlfn.XLOOKUP(K625,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B625" t="str">
         <f>_xlfn.XLOOKUP(L625,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24369,7 +24366,7 @@
       </c>
       <c r="D625" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onUK</v>
+        <v>onNL_W-onUK</v>
       </c>
       <c r="K625" t="s">
         <v>13</v>
@@ -24388,7 +24385,7 @@
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626" t="str">
         <f>_xlfn.XLOOKUP(K626,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B626" t="str">
         <f>_xlfn.XLOOKUP(L626,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24399,7 +24396,7 @@
       </c>
       <c r="D626" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onDKW</v>
+        <v>onNL_W-onDKW</v>
       </c>
       <c r="K626" t="s">
         <v>13</v>
@@ -24418,7 +24415,7 @@
     <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A627" t="str">
         <f>_xlfn.XLOOKUP(K627,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B627" t="str">
         <f>_xlfn.XLOOKUP(L627,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24429,7 +24426,7 @@
       </c>
       <c r="D627" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_E</v>
+        <v>onNL_W-onNL_E</v>
       </c>
       <c r="K627" t="s">
         <v>13</v>
@@ -24448,7 +24445,7 @@
     <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628" t="str">
         <f>_xlfn.XLOOKUP(K628,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B628" t="str">
         <f>_xlfn.XLOOKUP(L628,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24459,7 +24456,7 @@
       </c>
       <c r="D628" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNOS</v>
+        <v>onNL_W-onNOS</v>
       </c>
       <c r="K628" t="s">
         <v>13</v>
@@ -24478,7 +24475,7 @@
     <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629" t="str">
         <f>_xlfn.XLOOKUP(K629,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B629" t="str">
         <f>_xlfn.XLOOKUP(L629,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24489,7 +24486,7 @@
       </c>
       <c r="D629" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_NW</v>
+        <v>onNL_W-onNL_NW</v>
       </c>
       <c r="K629" t="s">
         <v>13</v>
@@ -24508,7 +24505,7 @@
     <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630" t="str">
         <f>_xlfn.XLOOKUP(K630,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B630" t="str">
         <f>_xlfn.XLOOKUP(L630,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24519,7 +24516,7 @@
       </c>
       <c r="D630" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_NE</v>
+        <v>onNL_W-onNL_NE</v>
       </c>
       <c r="K630" t="s">
         <v>13</v>
@@ -24538,7 +24535,7 @@
     <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631" t="str">
         <f>_xlfn.XLOOKUP(K631,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B631" t="str">
         <f>_xlfn.XLOOKUP(L631,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24549,7 +24546,7 @@
       </c>
       <c r="D631" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_CW</v>
+        <v>onNL_W-onNL_CW</v>
       </c>
       <c r="K631" t="s">
         <v>13</v>
@@ -24568,7 +24565,7 @@
     <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632" t="str">
         <f>_xlfn.XLOOKUP(K632,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B632" t="str">
         <f>_xlfn.XLOOKUP(L632,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24579,7 +24576,7 @@
       </c>
       <c r="D632" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-onNL_SE</v>
+        <v>onNL_W-onNL_SE</v>
       </c>
       <c r="K632" t="s">
         <v>13</v>
@@ -24598,7 +24595,7 @@
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633" t="str">
         <f>_xlfn.XLOOKUP(K633,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B633" t="str">
         <f>_xlfn.XLOOKUP(L633,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24609,7 +24606,7 @@
       </c>
       <c r="D633" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_EG</v>
+        <v>onNL_W-ofNL_EG</v>
       </c>
       <c r="K633" t="s">
         <v>13</v>
@@ -24628,7 +24625,7 @@
     <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634" t="str">
         <f>_xlfn.XLOOKUP(K634,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B634" t="str">
         <f>_xlfn.XLOOKUP(L634,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24639,7 +24636,7 @@
       </c>
       <c r="D634" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_PA</v>
+        <v>onNL_W-ofNL_PA</v>
       </c>
       <c r="K634" t="s">
         <v>13</v>
@@ -24658,7 +24655,7 @@
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635" t="str">
         <f>_xlfn.XLOOKUP(K635,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B635" t="str">
         <f>_xlfn.XLOOKUP(L635,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24669,7 +24666,7 @@
       </c>
       <c r="D635" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_LU</v>
+        <v>onNL_W-ofNL_LU</v>
       </c>
       <c r="K635" t="s">
         <v>13</v>
@@ -24688,7 +24685,7 @@
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636" t="str">
         <f>_xlfn.XLOOKUP(K636,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B636" t="str">
         <f>_xlfn.XLOOKUP(L636,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24699,7 +24696,7 @@
       </c>
       <c r="D636" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_GE_B</v>
+        <v>onNL_W-ofNL_GE_B</v>
       </c>
       <c r="K636" t="s">
         <v>13</v>
@@ -24718,7 +24715,7 @@
     <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637" t="str">
         <f>_xlfn.XLOOKUP(K637,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B637" t="str">
         <f>_xlfn.XLOOKUP(L637,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24729,7 +24726,7 @@
       </c>
       <c r="D637" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_GE_A</v>
+        <v>onNL_W-ofNL_GE_A</v>
       </c>
       <c r="K637" t="s">
         <v>13</v>
@@ -24748,7 +24745,7 @@
     <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638" t="str">
         <f>_xlfn.XLOOKUP(K638,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B638" t="str">
         <f>_xlfn.XLOOKUP(L638,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24759,7 +24756,7 @@
       </c>
       <c r="D638" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KN</v>
+        <v>onNL_W-ofNL_KN</v>
       </c>
       <c r="K638" t="s">
         <v>13</v>
@@ -24778,7 +24775,7 @@
     <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639" t="str">
         <f>_xlfn.XLOOKUP(K639,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B639" t="str">
         <f>_xlfn.XLOOKUP(L639,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24789,7 +24786,7 @@
       </c>
       <c r="D639" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KW_A</v>
+        <v>onNL_W-ofNL_KW_A</v>
       </c>
       <c r="K639" t="s">
         <v>13</v>
@@ -24808,7 +24805,7 @@
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640" t="str">
         <f>_xlfn.XLOOKUP(K640,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B640" t="str">
         <f>_xlfn.XLOOKUP(L640,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24819,7 +24816,7 @@
       </c>
       <c r="D640" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-ofNL_KW_B</v>
+        <v>onNL_W-ofNL_KW_B</v>
       </c>
       <c r="K640" t="s">
         <v>13</v>
@@ -24838,7 +24835,7 @@
     <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641" t="str">
         <f>_xlfn.XLOOKUP(K641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B641">
         <f>_xlfn.XLOOKUP(L641,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24849,7 +24846,7 @@
       </c>
       <c r="D641" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="K641" t="s">
         <v>13</v>
@@ -24865,7 +24862,7 @@
     <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642" t="str">
         <f>_xlfn.XLOOKUP(K642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B642">
         <f>_xlfn.XLOOKUP(L642,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24876,7 +24873,7 @@
       </c>
       <c r="D642" t="str">
         <f t="shared" si="18"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="K642" t="s">
         <v>13</v>
@@ -24892,7 +24889,7 @@
     <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643" t="str">
         <f>_xlfn.XLOOKUP(K643,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B643">
         <f>_xlfn.XLOOKUP(L643,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24903,7 +24900,7 @@
       </c>
       <c r="D643" t="str">
         <f t="shared" ref="D643:D706" si="20">A643&amp;"-"&amp;B643</f>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="K643" t="s">
         <v>13</v>
@@ -24919,7 +24916,7 @@
     <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644" t="str">
         <f>_xlfn.XLOOKUP(K644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B644">
         <f>_xlfn.XLOOKUP(L644,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24930,7 +24927,7 @@
       </c>
       <c r="D644" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="K644" t="s">
         <v>13</v>
@@ -24946,7 +24943,7 @@
     <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645" t="str">
         <f>_xlfn.XLOOKUP(K645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B645">
         <f>_xlfn.XLOOKUP(L645,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24957,7 +24954,7 @@
       </c>
       <c r="D645" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="K645" t="s">
         <v>13</v>
@@ -24973,7 +24970,7 @@
     <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646" t="str">
         <f>_xlfn.XLOOKUP(K646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B646">
         <f>_xlfn.XLOOKUP(L646,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -24984,7 +24981,7 @@
       </c>
       <c r="D646" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="K646" t="s">
         <v>13</v>
@@ -25000,7 +24997,7 @@
     <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647" t="str">
         <f>_xlfn.XLOOKUP(K647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="B647">
         <f>_xlfn.XLOOKUP(L647,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
@@ -25011,7 +25008,7 @@
       </c>
       <c r="D647" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SW-0</v>
+        <v>onNL_W-0</v>
       </c>
       <c r="K647" t="s">
         <v>13</v>
@@ -25571,14 +25568,14 @@
       </c>
       <c r="B666" t="str">
         <f>_xlfn.XLOOKUP(L666,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C666">
         <v>122233.015251859</v>
       </c>
       <c r="D666" t="str">
         <f t="shared" si="20"/>
-        <v>onNL_SE-onNL_SW</v>
+        <v>onNL_SE-onNL_W</v>
       </c>
       <c r="K666" t="s">
         <v>14</v>
@@ -26570,14 +26567,14 @@
       </c>
       <c r="B700" t="str">
         <f>_xlfn.XLOOKUP(L700,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C700">
         <v>71264.063469820598</v>
       </c>
       <c r="D700" t="str">
         <f t="shared" si="20"/>
-        <v>ofNL_EG-onNL_SW</v>
+        <v>ofNL_EG-onNL_W</v>
       </c>
       <c r="K700" t="s">
         <v>19</v>
@@ -27569,14 +27566,14 @@
       </c>
       <c r="B734" t="str">
         <f>_xlfn.XLOOKUP(L734,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C734">
         <v>74107.170601141202</v>
       </c>
       <c r="D734" t="str">
         <f t="shared" si="22"/>
-        <v>ofNL_PA-onNL_SW</v>
+        <v>ofNL_PA-onNL_W</v>
       </c>
       <c r="K734" t="s">
         <v>20</v>
@@ -28568,14 +28565,14 @@
       </c>
       <c r="B768" t="str">
         <f>_xlfn.XLOOKUP(L768,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C768">
         <v>59062.457639507797</v>
       </c>
       <c r="D768" t="str">
         <f t="shared" si="22"/>
-        <v>ofNL_LU-onNL_SW</v>
+        <v>ofNL_LU-onNL_W</v>
       </c>
       <c r="K768" t="s">
         <v>21</v>
@@ -29567,14 +29564,14 @@
       </c>
       <c r="B802" t="str">
         <f>_xlfn.XLOOKUP(L802,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C802">
         <v>241071.005421938</v>
       </c>
       <c r="D802" t="str">
         <f t="shared" si="24"/>
-        <v>ofNL_GE_B-onNL_SW</v>
+        <v>ofNL_GE_B-onNL_W</v>
       </c>
       <c r="K802" t="s">
         <v>22</v>
@@ -30566,14 +30563,14 @@
       </c>
       <c r="B836" t="str">
         <f>_xlfn.XLOOKUP(L836,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C836">
         <v>245151.86942224801</v>
       </c>
       <c r="D836" t="str">
         <f t="shared" si="26"/>
-        <v>ofNL_GE_A-onNL_SW</v>
+        <v>ofNL_GE_A-onNL_W</v>
       </c>
       <c r="K836" t="s">
         <v>23</v>
@@ -31565,14 +31562,14 @@
       </c>
       <c r="B870" t="str">
         <f>_xlfn.XLOOKUP(L870,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C870">
         <v>85584.997692026605</v>
       </c>
       <c r="D870" t="str">
         <f t="shared" si="26"/>
-        <v>ofNL_KN-onNL_SW</v>
+        <v>ofNL_KN-onNL_W</v>
       </c>
       <c r="K870" t="s">
         <v>26</v>
@@ -32564,14 +32561,14 @@
       </c>
       <c r="B904" t="str">
         <f>_xlfn.XLOOKUP(L904,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C904">
         <v>101471.540622548</v>
       </c>
       <c r="D904" t="str">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_A-onNL_SW</v>
+        <v>ofNL_KW_A-onNL_W</v>
       </c>
       <c r="K904" t="s">
         <v>27</v>
@@ -33563,14 +33560,14 @@
       </c>
       <c r="B938" t="str">
         <f>_xlfn.XLOOKUP(L938,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C938">
         <v>98835.658944315393</v>
       </c>
       <c r="D938" t="str">
         <f t="shared" si="28"/>
-        <v>ofNL_KW_B-onNL_SW</v>
+        <v>ofNL_KW_B-onNL_W</v>
       </c>
       <c r="K938" t="s">
         <v>28</v>
@@ -34562,7 +34559,7 @@
       </c>
       <c r="B972" t="str">
         <f>_xlfn.XLOOKUP(L972,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C972">
         <v>185717.44992658001</v>
@@ -35564,7 +35561,7 @@
       </c>
       <c r="B1006" t="str">
         <f>_xlfn.XLOOKUP(L1006,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1006">
         <v>260754.08906105699</v>
@@ -36566,7 +36563,7 @@
       </c>
       <c r="B1040" t="str">
         <f>_xlfn.XLOOKUP(L1040,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1040">
         <v>161006.521564044</v>
@@ -37568,7 +37565,7 @@
       </c>
       <c r="B1074" t="str">
         <f>_xlfn.XLOOKUP(L1074,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1074">
         <v>153196.85969856899</v>
@@ -38570,7 +38567,7 @@
       </c>
       <c r="B1108" t="str">
         <f>_xlfn.XLOOKUP(L1108,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1108">
         <v>129470.70179263101</v>
@@ -39572,7 +39569,7 @@
       </c>
       <c r="B1142" t="str">
         <f>_xlfn.XLOOKUP(L1142,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1142">
         <v>96348.178368929497</v>
@@ -40574,7 +40571,7 @@
       </c>
       <c r="B1176" t="str">
         <f>_xlfn.XLOOKUP(L1176,[1]NodeTranslation!$A:$A,[1]NodeTranslation!$B:$B)</f>
-        <v>onNL_SW</v>
+        <v>onNL_W</v>
       </c>
       <c r="C1176">
         <v>234773.42443201199</v>
